--- a/Files/计算比例.xlsx
+++ b/Files/计算比例.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -560,28 +560,28 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="7">
-        <v>10.54</v>
+        <v>30.9</v>
       </c>
       <c r="C2" s="8">
-        <v>13.33</v>
+        <v>45.97</v>
       </c>
       <c r="D2" s="8">
-        <v>3078</v>
+        <v>39.39</v>
       </c>
       <c r="E2" s="9">
         <f>(1-C5/2)*C2</f>
-        <v>11.565735294117646</v>
+        <v>34.760163430420711</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="7"/>
       <c r="C3" s="8">
         <f>C2-B2</f>
-        <v>2.7900000000000009</v>
+        <v>15.07</v>
       </c>
       <c r="D3" s="8">
         <f>C2-D2</f>
-        <v>-3064.67</v>
+        <v>6.5799999999999983</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -597,18 +597,18 @@
       </c>
       <c r="E4" s="9">
         <f>(B2+C2)/2</f>
-        <v>11.934999999999999</v>
+        <v>38.435000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="7"/>
       <c r="C5" s="4">
         <f>C3/B2</f>
-        <v>0.26470588235294129</v>
+        <v>0.48770226537216832</v>
       </c>
       <c r="D5" s="5">
         <f>D3/C2</f>
-        <v>-229.90772693173292</v>
+        <v>0.14313682836632582</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>4</v>
@@ -620,7 +620,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="5">
         <f>(E2+E4)/2</f>
-        <v>11.750367647058823</v>
+        <v>36.597581715210353</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/Files/计算比例.xlsx
+++ b/Files/计算比例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <r>
       <rPr>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测低点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -208,6 +212,21 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -220,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -236,13 +255,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -531,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -636,19 +685,26 @@
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="E8" s="15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7">
-        <v>36.19</v>
+        <v>26.59</v>
       </c>
       <c r="B9" s="8">
-        <v>33.450000000000003</v>
+        <v>22.79</v>
       </c>
       <c r="C9" s="8">
-        <v>35.47</v>
+        <v>24.66</v>
       </c>
       <c r="D9" s="9">
-        <v>33.11</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <f>C9-B10</f>
+        <v>20.86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -657,11 +713,11 @@
       </c>
       <c r="B10" s="8">
         <f>A9-B9</f>
-        <v>2.7399999999999949</v>
+        <v>3.8000000000000007</v>
       </c>
       <c r="C10" s="8">
         <f>B11/B10</f>
-        <v>0.73722627737226265</v>
+        <v>0.49210526315789493</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -673,7 +729,7 @@
       </c>
       <c r="B11" s="8">
         <f>C9-B9</f>
-        <v>2.019999999999996</v>
+        <v>1.870000000000001</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
@@ -686,75 +742,19 @@
       </c>
       <c r="B12" s="11">
         <f>C9-D9</f>
-        <v>2.3599999999999994</v>
+        <v>24.66</v>
       </c>
       <c r="C12" s="11">
         <f>B11/B12</f>
-        <v>0.855932203389829</v>
+        <v>7.5831305758313095E-2</v>
       </c>
       <c r="D12" s="5">
         <f>B10/B12</f>
-        <v>1.1610169491525404</v>
+        <v>0.15409570154095703</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14">
-        <v>21590</v>
-      </c>
-      <c r="D14">
-        <v>21350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15">
-        <v>21375</v>
-      </c>
-      <c r="C15">
-        <f>(B15-B14)/B14</f>
-        <v>-9.9583140342751272E-3</v>
-      </c>
-      <c r="D15">
-        <v>21080</v>
-      </c>
-      <c r="E15">
-        <f>(D15-D14)/D14</f>
-        <v>-1.2646370023419205E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16">
-        <v>21550</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ref="C16:C17" si="0">(B16-B15)/B15</f>
-        <v>8.1871345029239772E-3</v>
-      </c>
-      <c r="D16">
-        <v>21265</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:E17" si="1">(D16-D15)/D15</f>
-        <v>8.7760910815939275E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17">
-        <v>21280</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>-1.2529002320185615E-2</v>
-      </c>
-      <c r="D17">
-        <v>20995</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>-1.269691982130261E-2</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
